--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>index  下标</t>
   </si>
@@ -149,6 +149,9 @@
     <t>暗</t>
   </si>
   <si>
+    <t>type_category_0</t>
+  </si>
+  <si>
     <t>type_category_1</t>
   </si>
   <si>
@@ -213,6 +216,18 @@
   </si>
   <si>
     <t>投射</t>
+  </si>
+  <si>
+    <t>type_category_12</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>type_category_13</t>
+  </si>
+  <si>
+    <t>强化</t>
   </si>
 </sst>
 </file>
@@ -591,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -743,21 +758,6 @@
       </left>
       <right style="thin">
         <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
         <color rgb="FFEBEBEB"/>
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,34 +903,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,22 +1046,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,12 +1240,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EB0C9B8B-D3CB-470D-AA0F-6A7C0E52D6F3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6984E43E-0C61-4A92-B054-4CDEF11DD3AC}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8913E425-2B8A-4494-8DF5-7F75C318A06E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{854DF498-8AA2-4F92-B824-F660C34771B5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1520,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1708,124 +1696,157 @@
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="15">
-        <v>11</v>
+      <c r="B28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>index  下标</t>
   </si>
@@ -41,6 +41,9 @@
     <t>#Loccustom_text_{}</t>
   </si>
   <si>
+    <t>#Loccustom_text_{}_Description</t>
+  </si>
+  <si>
     <t>element</t>
   </si>
   <si>
@@ -59,6 +62,10 @@
     <t>火元素</t>
   </si>
   <si>
+    <t>技能附带3秒灼烧效果
+（灼烧每秒造成攻击力25%火元素伤害）</t>
+  </si>
+  <si>
     <t>fire</t>
   </si>
   <si>
@@ -68,6 +75,10 @@
     <t>冰元素</t>
   </si>
   <si>
+    <t>技能附带3秒减速30%效果
+对减速的单位15%概率冰冻1秒</t>
+  </si>
+  <si>
     <t>ice</t>
   </si>
   <si>
@@ -77,6 +88,10 @@
     <t>雷元素</t>
   </si>
   <si>
+    <t>技能附带1秒麻痹效果
+（相同单位10秒内最多生效一次，被麻痹的单位雷元素抗性降低10%）</t>
+  </si>
+  <si>
     <t>thunder</t>
   </si>
   <si>
@@ -86,6 +101,10 @@
     <t>风元素</t>
   </si>
   <si>
+    <t>技能附带击退50码效果
+（相同单位10秒内最多生效一次）</t>
+  </si>
+  <si>
     <t>wind</t>
   </si>
   <si>
@@ -95,6 +114,11 @@
     <t>光元素</t>
   </si>
   <si>
+    <t>可以默认为一个任意最高羁绊的元素
+（默认包括暗元素，不可默认为额外光元素）
+同时生成一个光元素</t>
+  </si>
+  <si>
     <t>light</t>
   </si>
   <si>
@@ -102,6 +126,11 @@
   </si>
   <si>
     <t>暗元素</t>
+  </si>
+  <si>
+    <t>自动抵消一个任意最高羁绊的元素
+（抵消包括光元素，不可抵消暗元素）
+同时生成一个暗元素</t>
   </si>
   <si>
     <t>drak</t>
@@ -606,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -645,6 +674,19 @@
         <color theme="0"/>
       </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
         <color rgb="FF595959"/>
       </right>
       <top style="medium">
@@ -683,6 +725,17 @@
       <left style="thin">
         <color rgb="FFEBEBEB"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
       <right style="medium">
         <color rgb="FF5A5A5A"/>
       </right>
@@ -726,6 +779,19 @@
       <left style="thin">
         <color rgb="FFEBEBEB"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
       <right style="medium">
         <color rgb="FF5A5A5A"/>
       </right>
@@ -765,6 +831,17 @@
       <bottom style="medium">
         <color rgb="FF5A5A5A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -891,7 +968,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,34 +980,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,7 +1105,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,6 +1127,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,12 +1329,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6984E43E-0C61-4A92-B054-4CDEF11DD3AC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{76062BAA-DCD7-46C3-BBB4-B2F94A1EFF8E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{854DF498-8AA2-4F92-B824-F660C34771B5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8FBA5161-6AB3-4062-A240-88441D2542BA}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1508,20 +1597,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="22.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.675" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="11.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:3">
+    <row r="1" ht="22.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,323 +1619,367 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="4" ht="49.5" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="5" ht="33" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="7" t="s">
+    <row r="6" ht="49.5" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="7" ht="33" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="8" ht="66" spans="1:4">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="9" ht="49.5" spans="1:4">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="7" t="s">
+    <row r="13" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
+    <row r="18" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="9">
+    <row r="19" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9">
+    <row r="20" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="9">
+    <row r="21" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="9">
+    <row r="22" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="9">
+    <row r="23" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="9">
+    <row r="24" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="9">
+    <row r="25" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="9">
+    <row r="26" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9">
+    <row r="27" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="9">
+    <row r="28" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:3">
-      <c r="A29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="9">
+    <row r="29" ht="17.25" spans="1:4">
+      <c r="A29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="9">
+    <row r="30" ht="17.25" spans="1:4">
+      <c r="A30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12">
         <v>0</v>
       </c>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -62,8 +62,7 @@
     <t>火元素</t>
   </si>
   <si>
-    <t>技能附带3秒灼烧效果
-（灼烧每秒造成攻击力25%火元素伤害）</t>
+    <t>火元素技能附带3秒灼烧效果，灼烧每秒造成攻击力25%火元素伤害</t>
   </si>
   <si>
     <t>fire</t>
@@ -75,8 +74,7 @@
     <t>冰元素</t>
   </si>
   <si>
-    <t>技能附带3秒减速30%效果
-对减速的单位15%概率冰冻1秒</t>
+    <t>冰元素技能附带3秒减速30%效果，对减速的单位15%概率冰冻1秒</t>
   </si>
   <si>
     <t>ice</t>
@@ -88,8 +86,7 @@
     <t>雷元素</t>
   </si>
   <si>
-    <t>技能附带1秒麻痹效果
-（相同单位10秒内最多生效一次，被麻痹的单位雷元素抗性降低10%）</t>
+    <t>雷元素技能附带1秒麻痹效果，相同单位10秒内最多生效一次，被麻痹的单位雷元素抗性降低10%</t>
   </si>
   <si>
     <t>thunder</t>
@@ -101,8 +98,7 @@
     <t>风元素</t>
   </si>
   <si>
-    <t>技能附带击退50码效果
-（相同单位10秒内最多生效一次）</t>
+    <t>风元素技能附带击退50码效果，相同单位10秒内最多生效一次</t>
   </si>
   <si>
     <t>wind</t>
@@ -115,8 +111,10 @@
   </si>
   <si>
     <t>可以默认为一个任意最高羁绊的元素
-（默认包括暗元素，不可默认为额外光元素）
-同时生成一个光元素</t>
+默认包括暗元素
+不可默认为额外光元素
+同时生成一个光元素
+造成伤害无视其15%全元素抗性</t>
   </si>
   <si>
     <t>light</t>
@@ -129,8 +127,10 @@
   </si>
   <si>
     <t>自动抵消一个任意最高羁绊的元素
-（抵消包括光元素，不可抵消暗元素）
-同时生成一个暗元素</t>
+抵消包括光元素
+不可抵消暗元素
+同时生成一个暗元素
+造成伤害无视其15%全元素抗性</t>
   </si>
   <si>
     <t>drak</t>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +288,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -962,137 +967,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1135,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,12 +1337,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{76062BAA-DCD7-46C3-BBB4-B2F94A1EFF8E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7A5EB39C-434A-4D29-A9C3-B01CD722D7B3}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8FBA5161-6AB3-4062-A240-88441D2542BA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D979884C-6B9C-4C49-ACDD-E641260A6E23}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1600,7 +1608,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1647,63 +1655,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="49.5" spans="1:4">
+    <row r="4" ht="28.5" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:4">
+    <row r="5" ht="28.5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="49.5" spans="1:4">
+    <row r="6" ht="42.75" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:4">
+    <row r="7" ht="28.5" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:4">
+    <row r="8" ht="82.5" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="49.5" spans="1:4">
+    <row r="9" ht="82.5" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1948,37 +1956,37 @@
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="12">
         <v>0</v>
       </c>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
+    <sheet name="custom_text" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>index  下标</t>
   </si>
@@ -257,6 +258,12 @@
   </si>
   <si>
     <t>强化</t>
+  </si>
+  <si>
+    <t>scoreboard_playerlist</t>
+  </si>
+  <si>
+    <t>玩家列表</t>
   </si>
 </sst>
 </file>
@@ -1337,12 +1344,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7A5EB39C-434A-4D29-A9C3-B01CD722D7B3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5C93D5AE-D9D9-4BF3-B13A-5CE9E08599D6}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D979884C-6B9C-4C49-ACDD-E641260A6E23}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A925A275-1236-4FB9-BE2C-44D29982B593}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1607,8 +1614,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1996,4 +2003,63 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="66" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>index  下标</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>玩家列表</t>
+  </si>
+  <si>
+    <t>attr_bonus</t>
+  </si>
+  <si>
+    <t>当前属性加成:\n白字:&lt;span class='value'&gt;{s:Base}&lt;/span&gt;\n白字加成:&lt;span class='value'&gt;{s:BasePercent}%&lt;/span&gt;\n绿字:&lt;span class='value'&gt;{s:Bonus}&lt;/span&gt;\n绿字加成:&lt;span class='value'&gt;{s:BonusPercent}%&lt;/span&gt;\n总加成:&lt;span class='value'&gt;{s:TotalPercent}%&lt;/span&gt;\n固定值:&lt;span class='value'&gt;{s:Fixed}&lt;/span&gt;\n乘算结果:&lt;span class='value'&gt;{s:MulRegion}&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +292,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -294,6 +300,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -974,145 +987,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,7 +1140,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1136,7 +1152,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,7 +1160,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,12 +1387,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5C93D5AE-D9D9-4BF3-B13A-5CE9E08599D6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{89A40E4B-2736-4A6F-92B3-7C5CB2EC7372}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A925A275-1236-4FB9-BE2C-44D29982B593}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{12123997-B49B-4202-86A3-B474D6378E8F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1615,7 +1658,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1627,374 +1670,374 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="12">
+      <c r="C28" s="26"/>
+      <c r="D28" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="12">
+      <c r="C29" s="26"/>
+      <c r="D29" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="12">
+      <c r="C30" s="26"/>
+      <c r="D30" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2008,54 +2051,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="24.675" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="66" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="105" customHeight="1" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>index  下标</t>
   </si>
@@ -177,87 +177,6 @@
   </si>
   <si>
     <t>暗</t>
-  </si>
-  <si>
-    <t>type_category_0</t>
-  </si>
-  <si>
-    <t>type_category_1</t>
-  </si>
-  <si>
-    <t>计数</t>
-  </si>
-  <si>
-    <t>type_category_2</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>type_category_3</t>
-  </si>
-  <si>
-    <t>持续</t>
-  </si>
-  <si>
-    <t>type_category_4</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>type_category_5</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>type_category_6</t>
-  </si>
-  <si>
-    <t>理财</t>
-  </si>
-  <si>
-    <t>type_category_7</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>type_category_8</t>
-  </si>
-  <si>
-    <t>召唤</t>
-  </si>
-  <si>
-    <t>type_category_9</t>
-  </si>
-  <si>
-    <t>收益</t>
-  </si>
-  <si>
-    <t>type_category_10</t>
-  </si>
-  <si>
-    <t>咒术</t>
-  </si>
-  <si>
-    <t>type_category_11</t>
-  </si>
-  <si>
-    <t>投射</t>
-  </si>
-  <si>
-    <t>type_category_12</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>type_category_13</t>
-  </si>
-  <si>
-    <t>强化</t>
   </si>
   <si>
     <t>scoreboard_playerlist</t>
@@ -660,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -826,47 +745,6 @@
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -993,7 +871,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,34 +883,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,9 +1044,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,15 +1063,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,12 +1253,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{89A40E4B-2736-4A6F-92B3-7C5CB2EC7372}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{71A56D6A-386B-4BE6-B872-8E59ACA8FAEC}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{12123997-B49B-4202-86A3-B474D6378E8F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5A4014BE-E4F0-4059-87AE-5F7FA0DE0588}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1655,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1670,20 +1536,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1697,7 +1563,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12"/>
@@ -1709,10 +1575,10 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1723,10 +1589,10 @@
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1737,10 +1603,10 @@
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1751,10 +1617,10 @@
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1765,7 +1631,7 @@
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1779,7 +1645,7 @@
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1793,7 +1659,7 @@
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="12"/>
@@ -1805,7 +1671,7 @@
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="12"/>
@@ -1817,7 +1683,7 @@
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="12"/>
@@ -1829,7 +1695,7 @@
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="12"/>
@@ -1841,7 +1707,7 @@
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="12"/>
@@ -1853,7 +1719,7 @@
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="12"/>
@@ -1865,180 +1731,12 @@
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +1751,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2091,10 +1789,10 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13">
@@ -2103,13 +1801,13 @@
     </row>
     <row r="4" ht="105" customHeight="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16">
+        <v>50</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14">
         <v>2</v>
       </c>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>index  下标</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>当前属性加成:\n白字:&lt;span class='value'&gt;{s:Base}&lt;/span&gt;\n白字加成:&lt;span class='value'&gt;{s:BasePercent}%&lt;/span&gt;\n绿字:&lt;span class='value'&gt;{s:Bonus}&lt;/span&gt;\n绿字加成:&lt;span class='value'&gt;{s:BonusPercent}%&lt;/span&gt;\n总加成:&lt;span class='value'&gt;{s:TotalPercent}%&lt;/span&gt;\n固定值:&lt;span class='value'&gt;{s:Fixed}&lt;/span&gt;\n乘算结果:&lt;span class='value'&gt;{s:MulRegion}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>mystical_shop_lock</t>
+  </si>
+  <si>
+    <t>锁定商品</t>
+  </si>
+  <si>
+    <t>锁定该商品，下次灵魂商店出现时不会刷新该商品。</t>
+  </si>
+  <si>
+    <t>mystical_shop_refresh</t>
+  </si>
+  <si>
+    <t>刷新商店</t>
+  </si>
+  <si>
+    <t>消耗&lt;span class="soul"&gt;{d:refresh_soul}&lt;/span&gt;灵魂刷新，每次刷新消耗递增，当前第&lt;span class="count"&gt;{d:refresh_count}&lt;/span&gt;次</t>
   </si>
 </sst>
 </file>
@@ -1253,12 +1271,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{71A56D6A-386B-4BE6-B872-8E59ACA8FAEC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3D2C4120-0618-4961-84D8-E093D0B9020C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5A4014BE-E4F0-4059-87AE-5F7FA0DE0588}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0A7F2613-9201-4A27-9D76-7E33963BF48F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1523,7 +1541,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1749,13 +1767,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.675" customWidth="1"/>
     <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
@@ -1811,6 +1829,168 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" ht="33" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" ht="99" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>index  下标</t>
   </si>
@@ -207,6 +207,126 @@
   </si>
   <si>
     <t>消耗&lt;span class="soul"&gt;{d:refresh_soul}&lt;/span&gt;灵魂刷新，每次刷新消耗递增，当前第&lt;span class="count"&gt;{d:refresh_count}&lt;/span&gt;次</t>
+  </si>
+  <si>
+    <t>boss_cast_warning</t>
+  </si>
+  <si>
+    <t>boss {s:unitname} 正在蓄力，准备释放{s:ability} 各位请注意应对!!!</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_1</t>
+  </si>
+  <si>
+    <t>boss会向随机方向转动，请注意规避</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_2</t>
+  </si>
+  <si>
+    <t>区域内会随机落雷，请注意规避！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_3</t>
+  </si>
+  <si>
+    <t>远离黑洞中心！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_4</t>
+  </si>
+  <si>
+    <t>远离危险区域！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_5</t>
+  </si>
+  <si>
+    <t>请保持禁止不动！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_6</t>
+  </si>
+  <si>
+    <t>请保持移动！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_7</t>
+  </si>
+  <si>
+    <t>请在10秒内移动到正确的位置！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_8</t>
+  </si>
+  <si>
+    <t>请在10秒内将垃圾分类完毕！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_9</t>
+  </si>
+  <si>
+    <t>你被感染变成了僵尸！快跑吧！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_10</t>
+  </si>
+  <si>
+    <t>最远的那名玩家快跑起来！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_11</t>
+  </si>
+  <si>
+    <t>请自行摸索音符的效果！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_12</t>
+  </si>
+  <si>
+    <t>黑魔法球即将攻击被连线的玩家！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_13</t>
+  </si>
+  <si>
+    <t>有护盾的玩家请依次接线承受伤害！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_14</t>
+  </si>
+  <si>
+    <t>请拉断与灵魂的连线！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_15</t>
+  </si>
+  <si>
+    <t>快去一起分摊伤害！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_16</t>
+  </si>
+  <si>
+    <t>请远离你的朋友们！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_17</t>
+  </si>
+  <si>
+    <t>请拾取最强之盾抵挡该次伤害！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_18</t>
+  </si>
+  <si>
+    <t>请移动到最强之盾后面去！！</t>
+  </si>
+  <si>
+    <t>boss_cast_warning_19</t>
+  </si>
+  <si>
+    <t>快去拾取最强之矛！！</t>
   </si>
 </sst>
 </file>
@@ -1271,12 +1391,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3D2C4120-0618-4961-84D8-E093D0B9020C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{63993590-242E-4B72-B951-11179F061CFD}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0A7F2613-9201-4A27-9D76-7E33963BF48F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{77FE5F7A-2A3D-43D1-B119-BA389CC6F0D0}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1769,8 +1889,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1854,122 +1974,202 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" ht="16.5" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" ht="16.5" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" ht="16.5" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
     <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" ht="16.5" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" ht="16.5" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
     <row r="26" ht="16.5" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -339,7 +339,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -517,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +539,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -717,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -887,6 +900,66 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.599993896298105"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1003,55 +1076,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,74 +1136,77 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,16 +1255,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1391,12 +1476,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{63993590-242E-4B72-B951-11179F061CFD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6D880B4B-D81D-493E-9EAE-24725CD251B0}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{77FE5F7A-2A3D-43D1-B119-BA389CC6F0D0}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2A082BEF-AFA1-4E07-9AD7-720354DE5298}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1674,20 +1759,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1701,7 +1786,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12"/>
@@ -1713,10 +1798,10 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1727,10 +1812,10 @@
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1741,10 +1826,10 @@
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1755,10 +1840,10 @@
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1769,7 +1854,7 @@
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1783,7 +1868,7 @@
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1797,7 +1882,7 @@
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="12"/>
@@ -1809,7 +1894,7 @@
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="12"/>
@@ -1821,7 +1906,7 @@
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="12"/>
@@ -1833,7 +1918,7 @@
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="12"/>
@@ -1845,7 +1930,7 @@
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="12"/>
@@ -1857,7 +1942,7 @@
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="12"/>
@@ -1869,7 +1954,7 @@
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="12"/>
@@ -1887,10 +1972,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2175,21 +2260,73 @@
     </row>
     <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="14"/>
     </row>
     <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="14"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
     <sheet name="custom_text" sheetId="2" r:id="rId2"/>
+    <sheet name="dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>index  下标</t>
   </si>
@@ -54,9 +55,6 @@
     <t>无元素</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>element_1</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>火元素技能附带3秒灼烧效果，灼烧每秒造成攻击力25%火元素伤害</t>
   </si>
   <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>element_2</t>
   </si>
   <si>
@@ -78,9 +73,6 @@
     <t>冰元素技能附带3秒减速30%效果，对减速的单位15%概率冰冻1秒</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>element_3</t>
   </si>
   <si>
@@ -90,9 +82,6 @@
     <t>雷元素技能附带1秒麻痹效果，相同单位10秒内最多生效一次，被麻痹的单位雷元素抗性降低10%</t>
   </si>
   <si>
-    <t>thunder</t>
-  </si>
-  <si>
     <t>element_4</t>
   </si>
   <si>
@@ -100,9 +89,6 @@
   </si>
   <si>
     <t>风元素技能附带击退50码效果，相同单位10秒内最多生效一次</t>
-  </si>
-  <si>
-    <t>wind</t>
   </si>
   <si>
     <t>element_5</t>
@@ -118,9 +104,6 @@
 造成伤害无视其15%全元素抗性</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
     <t>element_6</t>
   </si>
   <si>
@@ -134,9 +117,6 @@
 造成伤害无视其15%全元素抗性</t>
   </si>
   <si>
-    <t>drak</t>
-  </si>
-  <si>
     <t>element_title_0</t>
   </si>
   <si>
@@ -327,6 +307,33 @@
   </si>
   <si>
     <t>快去拾取最强之矛！！</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>#Loccustom_dashboard_{}</t>
+  </si>
+  <si>
+    <t>menu_card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>nav_card_handbook</t>
+  </si>
+  <si>
+    <t>图鉴</t>
+  </si>
+  <si>
+    <t>nav_card_register</t>
+  </si>
+  <si>
+    <t>登记</t>
   </si>
 </sst>
 </file>
@@ -364,7 +371,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1206,37 +1212,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,9 +1295,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,12 +1491,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6D880B4B-D81D-493E-9EAE-24725CD251B0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F4B6A84-4D3D-4342-AA13-11F39E0FD45B}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2A082BEF-AFA1-4E07-9AD7-720354DE5298}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{138D6EBD-553B-485F-BC50-500727D98A66}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1747,7 +1762,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1759,208 +1774,180 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" ht="42.75" spans="1:4">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" ht="82.5" spans="1:4">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" ht="82.5" spans="1:4">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="B9" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="B13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="B15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="B16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1974,359 +1961,442 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.675" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="30.0083333333333" customWidth="1"/>
     <col min="4" max="4" width="11.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" ht="105" customHeight="1" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" ht="33" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" ht="99" spans="1:4">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
+      <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
+      <c r="A18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
+      <c r="A19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
+      <c r="A20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
+      <c r="A27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.675" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="105" customHeight="1" spans="1:4">
-      <c r="A4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="33" spans="1:4">
-      <c r="A5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" ht="99" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:4">
-      <c r="A22" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:4">
-      <c r="A25" s="14" t="s">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:4">
-      <c r="A26" s="14" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>index  下标</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>登记</t>
+  </si>
+  <si>
+    <t>nav_personal_hero</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>nav_personal_skill</t>
+  </si>
+  <si>
+    <t>技能精通</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1265,9 +1274,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1491,12 +1497,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F4B6A84-4D3D-4342-AA13-11F39E0FD45B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D708CB6-9733-4AA9-8D0D-48912E0AC67C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{138D6EBD-553B-485F-BC50-500727D98A66}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1F9E7B0E-8226-4A03-8D2D-7477B30EEFD4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1774,14 +1780,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1798,156 +1804,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,14 +1967,14 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.675" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.0083333333333" customWidth="1"/>
     <col min="4" max="4" width="11.675" customWidth="1"/>
   </cols>
@@ -1977,7 +1983,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -1987,7 +1993,7 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1998,322 +2004,322 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="105" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" ht="33" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="99" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" ht="16.5" spans="1:4">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" ht="16.5" spans="1:4">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" ht="16.5" spans="1:4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" ht="16.5" spans="1:4">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" ht="16.5" spans="1:4">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" ht="16.5" spans="1:4">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" ht="16.5" spans="1:4">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" ht="16.5" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" ht="16.5" spans="1:4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2324,13 +2330,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
@@ -2369,8 +2375,8 @@
       <c r="B3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
@@ -2379,8 +2385,8 @@
       <c r="B4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
@@ -2389,14 +2395,28 @@
       <c r="B5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>index  下标</t>
   </si>
@@ -346,6 +346,27 @@
   </si>
   <si>
     <t>技能精通</t>
+  </si>
+  <si>
+    <t>nav_backpack_all</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>nav_backpack_type1</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>nav_backpack_type2</t>
+  </si>
+  <si>
+    <t>特权</t>
+  </si>
+  <si>
+    <t>nav_backpack_type3</t>
   </si>
 </sst>
 </file>
@@ -1497,12 +1518,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D708CB6-9733-4AA9-8D0D-48912E0AC67C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3E85AA74-C086-452E-BF71-22F6D6137134}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1F9E7B0E-8226-4A03-8D2D-7477B30EEFD4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{67BEFB12-A319-4628-90F4-FEDD0D4AD8C5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2330,13 +2351,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
@@ -2418,6 +2439,36 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>index  下标</t>
   </si>
@@ -159,6 +159,12 @@
     <t>暗</t>
   </si>
   <si>
+    <t>#Loccustom_text_{}_ex1</t>
+  </si>
+  <si>
+    <t>#Loccustom_text_{}_ex2</t>
+  </si>
+  <si>
     <t>scoreboard_playerlist</t>
   </si>
   <si>
@@ -313,6 +319,27 @@
   </si>
   <si>
     <t>搜索</t>
+  </si>
+  <si>
+    <t>soul_invest</t>
+  </si>
+  <si>
+    <t>灵魂投资</t>
+  </si>
+  <si>
+    <t>灵魂投资等级&lt;span class="green"&gt;+{d:up_value}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{d:curr}灵魂/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{d:next}灵魂/s</t>
+  </si>
+  <si>
+    <t>invest_about</t>
+  </si>
+  <si>
+    <t>每秒获得&lt;span class="green"&gt;{d:count}&lt;/span&gt;灵魂</t>
   </si>
   <si>
     <t>#Loccustom_dashboard_{}</t>
@@ -1245,7 +1272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1309,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,6 +1327,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,6 +1340,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,12 +1557,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3E85AA74-C086-452E-BF71-22F6D6137134}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D278B6CA-44A0-4750-8A86-F2B15AFCA442}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{67BEFB12-A319-4628-90F4-FEDD0D4AD8C5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A2D4F0E5-A270-46DD-A3E9-D9EADEC003F3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1801,14 +1840,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1825,156 +1864,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,21 +2025,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.675" customWidth="1"/>
     <col min="2" max="2" width="50.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.675" customWidth="1"/>
+    <col min="3" max="5" width="30.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,339 +2047,441 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:4">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" ht="105" customHeight="1" spans="1:4">
+    <row r="3" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" ht="105" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-    </row>
-    <row r="5" ht="33" spans="1:4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="33" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9"/>
-    </row>
-    <row r="6" ht="99" spans="1:4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="99" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:4">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:4">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:4">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:4">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:4">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:4">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:4">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:4">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:4">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:4">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:4">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:4">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:4">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:4">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:4">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:4">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:4">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:4">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:4">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" ht="49.5" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:5">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:5">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:5">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:5">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:5">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:5">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:5">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:5">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:5">
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:5">
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:5">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:5">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:5">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2353,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2380,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2391,81 +2532,81 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B11" s="9"/>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>index  下标</t>
   </si>
@@ -340,6 +340,42 @@
   </si>
   <si>
     <t>每秒获得&lt;span class="green"&gt;{d:count}&lt;/span&gt;灵魂</t>
+  </si>
+  <si>
+    <t>ss_slot_1</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>ss_slot_2</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>ss_slot_3</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>ss_slot_4</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>ss_slot_5</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>ss_slot_6</t>
+  </si>
+  <si>
+    <t>首饰</t>
   </si>
   <si>
     <t>#Loccustom_dashboard_{}</t>
@@ -406,7 +442,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,15 +464,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF88846F"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -590,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,12 +647,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -796,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -966,66 +1002,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.599993896298105"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1142,137 +1118,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,67 +1282,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1840,14 +1846,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1864,156 +1870,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,7 +2031,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -2033,455 +2039,450 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.675" customWidth="1"/>
+    <col min="1" max="1" width="24.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="50.625" style="10" customWidth="1"/>
-    <col min="3" max="5" width="30.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="5" width="25.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="11.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" ht="105" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" ht="121.5" customHeight="1" spans="1:6">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="33" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="99" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" ht="55.5" customHeight="1" spans="1:6">
+      <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:6">
+      <c r="A7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A17" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A21" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A22" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A25" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A26" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A27" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" ht="49.5" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A28" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="9" t="s">
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A29" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:5">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:5">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:5">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:5">
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:5">
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:5">
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:5">
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:5">
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:5">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A30" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A31" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A32" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A33" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A35" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2521,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2532,81 +2533,81 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B11" s="9"/>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -324,22 +324,22 @@
     <t>soul_invest</t>
   </si>
   <si>
-    <t>灵魂投资</t>
-  </si>
-  <si>
-    <t>灵魂投资等级&lt;span class="green"&gt;+{d:up_value}&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{d:curr}灵魂/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{d:next}灵魂/s</t>
+    <t>金币投资</t>
+  </si>
+  <si>
+    <t>投资等级&lt;span class="green"&gt;+{d:up_value}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{d:curr}金币/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{d:next}金币/s</t>
   </si>
   <si>
     <t>invest_about</t>
   </si>
   <si>
-    <t>每秒获得&lt;span class="green"&gt;{d:count}&lt;/span&gt;灵魂</t>
+    <t>每秒获得&lt;span class="green"&gt;{d:count}&lt;/span&gt;金币</t>
   </si>
   <si>
     <t>ss_slot_1</t>
@@ -1248,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,68 +1285,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1563,12 +1515,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D278B6CA-44A0-4750-8A86-F2B15AFCA442}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{30C9839D-C7C0-46A1-9104-03DC7C79E760}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A2D4F0E5-A270-46DD-A3E9-D9EADEC003F3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5DFB3E42-C93E-475B-AFDF-AAEEB90E07C8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1846,14 +1798,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1870,156 +1822,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,8 +1985,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2050,439 +2002,439 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="121.5" customHeight="1" spans="1:6">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" ht="55.5" customHeight="1" spans="1:6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:6">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="32"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t>index  下标</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>首饰</t>
+  </si>
+  <si>
+    <t>player_rune_selected</t>
+  </si>
+  <si>
+    <t>{s:player_id}选择了符文&lt;span class="rune"&gt;{s:rune_name}&lt;/span&gt;</t>
   </si>
   <si>
     <t>#Loccustom_dashboard_{}</t>
@@ -466,19 +472,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF88846F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1248,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,31 +1290,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,12 +1523,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{30C9839D-C7C0-46A1-9104-03DC7C79E760}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{37D3E350-73CF-4AA2-9C9C-38BA58F708C8}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5DFB3E42-C93E-475B-AFDF-AAEEB90E07C8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B2AD6672-9E39-485E-8C77-EF2E65B2B352}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1798,14 +1806,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1822,156 +1830,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,22 +1991,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="5" width="25.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.675" customWidth="1"/>
+    <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="5" width="22.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2018,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:6">
+    <row r="2" ht="18.5" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:6">
+    <row r="3" ht="18.5" customHeight="1" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2050,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" ht="121.5" customHeight="1" spans="1:6">
+    <row r="4" ht="134" customHeight="1" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -2054,7 +2062,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+    <row r="5" ht="18.5" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2076,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" ht="55.5" customHeight="1" spans="1:6">
+    <row r="6" ht="51.5" customHeight="1" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
@@ -2082,7 +2090,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="1:6">
+    <row r="7" ht="35" customHeight="1" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
@@ -2094,7 +2102,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+    <row r="8" ht="18.5" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
@@ -2106,7 +2114,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:6">
+    <row r="9" ht="18.5" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2126,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:6">
+    <row r="10" ht="18.5" customHeight="1" spans="1:6">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
@@ -2130,7 +2138,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:6">
+    <row r="11" ht="18.5" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>60</v>
       </c>
@@ -2142,7 +2150,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:6">
+    <row r="12" ht="18.5" customHeight="1" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
@@ -2154,7 +2162,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:6">
+    <row r="13" ht="18.5" customHeight="1" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>64</v>
       </c>
@@ -2166,7 +2174,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:6">
+    <row r="14" ht="18.5" customHeight="1" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
@@ -2178,7 +2186,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:6">
+    <row r="15" ht="18.5" customHeight="1" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -2190,7 +2198,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+    <row r="16" ht="18.5" customHeight="1" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
@@ -2202,7 +2210,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+    <row r="17" ht="18.5" customHeight="1" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -2214,7 +2222,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+    <row r="18" ht="18.5" customHeight="1" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
@@ -2226,7 +2234,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:6">
+    <row r="19" ht="18.5" customHeight="1" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
@@ -2238,7 +2246,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:6">
+    <row r="20" ht="18.5" customHeight="1" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>78</v>
       </c>
@@ -2250,7 +2258,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:6">
+    <row r="21" ht="18.5" customHeight="1" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -2262,7 +2270,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:6">
+    <row r="22" ht="18.5" customHeight="1" spans="1:6">
       <c r="A22" s="12" t="s">
         <v>82</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:6">
+    <row r="23" ht="18.5" customHeight="1" spans="1:6">
       <c r="A23" s="12" t="s">
         <v>84</v>
       </c>
@@ -2286,7 +2294,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:6">
+    <row r="24" ht="18.5" customHeight="1" spans="1:6">
       <c r="A24" s="12" t="s">
         <v>86</v>
       </c>
@@ -2298,7 +2306,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:6">
+    <row r="25" ht="18.5" customHeight="1" spans="1:6">
       <c r="A25" s="12" t="s">
         <v>88</v>
       </c>
@@ -2310,7 +2318,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:6">
+    <row r="26" ht="18.5" customHeight="1" spans="1:6">
       <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
@@ -2322,119 +2330,131 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:6">
+    <row r="27" ht="18.5" customHeight="1" spans="1:6">
       <c r="A27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:6">
+    <row r="28" ht="35" customHeight="1" spans="1:6">
       <c r="A28" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>98</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:6">
+    <row r="29" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:6">
+    <row r="30" ht="18.5" customHeight="1" spans="1:6">
       <c r="A30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:6">
+    <row r="31" ht="18.5" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:6">
+    <row r="32" ht="18.5" customHeight="1" spans="1:6">
       <c r="A32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:6">
+    <row r="33" ht="18.5" customHeight="1" spans="1:6">
       <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:6">
+    <row r="34" ht="18.5" customHeight="1" spans="1:6">
       <c r="A34" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:6">
+    <row r="35" ht="18.5" customHeight="1" spans="1:6">
       <c r="A35" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="12"/>
+    </row>
+    <row r="36" ht="35" customHeight="1" spans="1:6">
+      <c r="A36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2474,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2485,81 +2505,81 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="9"/>
     </row>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
   <si>
     <t>index  下标</t>
   </si>
@@ -384,6 +384,12 @@
     <t>{s:player_id}选择了符文&lt;span class="rune"&gt;{s:rune_name}&lt;/span&gt;</t>
   </si>
   <si>
+    <t>stone_soul_attr</t>
+  </si>
+  <si>
+    <t>{s:ss_attr}</t>
+  </si>
+  <si>
     <t>#Loccustom_dashboard_{}</t>
   </si>
   <si>
@@ -415,6 +421,12 @@
   </si>
   <si>
     <t>技能精通</t>
+  </si>
+  <si>
+    <t>nav_personal_stone</t>
+  </si>
+  <si>
+    <t>魂石</t>
   </si>
   <si>
     <t>nav_backpack_all</t>
@@ -1253,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,12 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1523,12 +1529,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{37D3E350-73CF-4AA2-9C9C-38BA58F708C8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5120701D-C777-4039-8BD1-0104A199E63B}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B2AD6672-9E39-485E-8C77-EF2E65B2B352}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{25A204B8-2E0D-4CA3-892E-0935D9FB8FAF}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1806,14 +1812,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1830,156 +1836,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,10 +1997,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2451,10 +2457,22 @@
       <c r="B36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" ht="35" customHeight="1" spans="1:6">
+      <c r="A37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2465,10 +2483,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2494,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2505,83 +2523,93 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" ht="22.5" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
   <si>
     <t>index  下标</t>
   </si>
@@ -448,6 +448,54 @@
   </si>
   <si>
     <t>nav_backpack_type3</t>
+  </si>
+  <si>
+    <t>nav_store_nav_1</t>
+  </si>
+  <si>
+    <t>热卖</t>
+  </si>
+  <si>
+    <t>nav_store_nav_2</t>
+  </si>
+  <si>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>nav_store_nav_3</t>
+  </si>
+  <si>
+    <t>铂金商铺</t>
+  </si>
+  <si>
+    <t>nav_store_nav_4</t>
+  </si>
+  <si>
+    <t>黄金商铺</t>
+  </si>
+  <si>
+    <t>nav_store_nav_5</t>
+  </si>
+  <si>
+    <t>钻石商铺</t>
+  </si>
+  <si>
+    <t>nav_store_qifu</t>
+  </si>
+  <si>
+    <t>元素祈福</t>
+  </si>
+  <si>
+    <t>nav_store_nav_7</t>
+  </si>
+  <si>
+    <t>黄金兑换</t>
+  </si>
+  <si>
+    <t>nav_store_nav_8</t>
+  </si>
+  <si>
+    <t>成长礼</t>
   </si>
 </sst>
 </file>
@@ -1529,12 +1577,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5120701D-C777-4039-8BD1-0104A199E63B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5C1175A8-AC27-4805-A89C-A58F821DCB52}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{25A204B8-2E0D-4CA3-892E-0935D9FB8FAF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BF0ADEA0-953D-4629-A27B-F3985B0B6FDF}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1999,7 +2047,7 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2483,10 +2531,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2611,6 +2659,70 @@
       </c>
       <c r="B12" s="9"/>
     </row>
+    <row r="13" ht="16.5" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>index  下标</t>
   </si>
@@ -492,10 +492,19 @@
     <t>黄金兑换</t>
   </si>
   <si>
-    <t>nav_store_nav_8</t>
+    <t>nav_store_gacha</t>
+  </si>
+  <si>
+    <t>nav_event_bp</t>
   </si>
   <si>
     <t>成长礼</t>
+  </si>
+  <si>
+    <t>nav_event_quest</t>
+  </si>
+  <si>
+    <t>常驻活动</t>
   </si>
 </sst>
 </file>
@@ -1577,12 +1586,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5C1175A8-AC27-4805-A89C-A58F821DCB52}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D3022E9D-DDB3-402B-9F20-713C07523858}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BF0ADEA0-953D-4629-A27B-F3985B0B6FDF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2E16C62A-B9AD-4DF1-9CDA-F1001DB36A42}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2531,10 +2540,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2720,7 +2729,23 @@
         <v>151</v>
       </c>
       <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:2">
+      <c r="A21" s="9" t="s">
         <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
   <si>
     <t>index  下标</t>
   </si>
@@ -471,28 +471,31 @@
     <t>nav_store_nav_4</t>
   </si>
   <si>
-    <t>黄金商铺</t>
+    <t>钻石商铺</t>
   </si>
   <si>
     <t>nav_store_nav_5</t>
   </si>
   <si>
-    <t>钻石商铺</t>
-  </si>
-  <si>
-    <t>nav_store_qifu</t>
+    <t>图鉴兑换</t>
+  </si>
+  <si>
+    <t>nav_store_nav_6</t>
+  </si>
+  <si>
+    <t>魂石兑换</t>
+  </si>
+  <si>
+    <t>nav_store_gacha</t>
   </si>
   <si>
     <t>元素祈福</t>
   </si>
   <si>
-    <t>nav_store_nav_7</t>
+    <t>nav_store_recharge</t>
   </si>
   <si>
     <t>黄金兑换</t>
-  </si>
-  <si>
-    <t>nav_store_gacha</t>
   </si>
   <si>
     <t>nav_event_bp</t>
@@ -1586,12 +1589,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D3022E9D-DDB3-402B-9F20-713C07523858}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8E752597-6FAA-48B1-AE73-7C74E5446228}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2E16C62A-B9AD-4DF1-9CDA-F1001DB36A42}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9204A76F-8B67-4C8D-8CBE-63A9ADFAA8D6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2543,7 +2546,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2729,23 +2732,23 @@
         <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
       <c r="A21" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/excels/localize/localize.xlsx
+++ b/excels/localize/localize.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
   <si>
     <t>index  下标</t>
   </si>
@@ -393,12 +393,39 @@
     <t>#Loccustom_dashboard_{}</t>
   </si>
   <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
     <t>menu_card</t>
   </si>
   <si>
-    <t>卡片</t>
-  </si>
-  <si>
     <t>nav_card_handbook</t>
   </si>
   <si>
@@ -495,13 +522,19 @@
     <t>nav_store_recharge</t>
   </si>
   <si>
-    <t>黄金兑换</t>
+    <t>铂金兑换</t>
   </si>
   <si>
     <t>nav_event_bp</t>
   </si>
   <si>
     <t>成长礼</t>
+  </si>
+  <si>
+    <t>nav_event_exchange</t>
+  </si>
+  <si>
+    <t>礼包兑换</t>
   </si>
   <si>
     <t>nav_event_quest</t>
@@ -1325,7 +1358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1384,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,12 +1625,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8E752597-6FAA-48B1-AE73-7C74E5446228}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{70FA070E-6FA9-4AA1-8FDC-3C2993666894}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9204A76F-8B67-4C8D-8CBE-63A9ADFAA8D6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{42B244C5-3B97-4EB4-8885-C3D504AB7466}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1872,14 +1908,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1896,156 +1932,156 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" ht="28.5" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" ht="42.75" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" ht="28.5" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" ht="82.5" spans="1:4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" ht="82.5" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2066,473 +2102,473 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="5" width="22.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="9.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="134" customHeight="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" ht="35" customHeight="1" spans="1:6">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" ht="35" customHeight="1" spans="1:6">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" ht="35" customHeight="1" spans="1:6">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2543,10 +2579,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2598,8 +2634,8 @@
       <c r="B4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
@@ -2608,8 +2644,8 @@
       <c r="B5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
@@ -2618,8 +2654,8 @@
       <c r="B6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
@@ -2628,127 +2664,185 @@
       <c r="B7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A10" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A12" s="10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="B18" t="s">
         <v>147</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" ht="16.5" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="B19" t="s">
         <v>149</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" ht="16.5" spans="1:2">
+      <c r="A20" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="B20" t="s">
         <v>151</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" ht="16.5" spans="1:2">
+      <c r="A21" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="B21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" ht="16.5" spans="1:2">
+      <c r="A22" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" ht="16.5" spans="1:2">
+      <c r="A23" s="10" t="s">
         <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
